--- a/data/trans_orig/Q64A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>19.07001520190563</v>
+        <v>19.1543278067786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.62650402163725</v>
+        <v>16.69413242711967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.25349907601787</v>
+        <v>16.62600768733365</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.27974381747654</v>
+        <v>13.49837235767914</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>13.82457988938672</v>
+        <v>13.83588915413611</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.82511036357714</v>
+        <v>16.52464553207977</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.67831456115375</v>
+        <v>16.75252453633744</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>13.07859923589103</v>
+        <v>12.89055240732586</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.46814835380668</v>
+        <v>17.51772192782483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.66912157413977</v>
+        <v>17.75611345491066</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17.4447768285247</v>
+        <v>17.23972629113343</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>14.15200097975511</v>
+        <v>14.19319048899997</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25.56605870963618</v>
+        <v>26.12422940485035</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.9103030957384</v>
+        <v>25.76887858618724</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.81295000927916</v>
+        <v>27.47255242295662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.67464778050618</v>
+        <v>19.49132972516026</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.91608878193805</v>
+        <v>19.14101233814188</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>25.26454939992501</v>
+        <v>25.45202053198199</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>27.1044987196864</v>
+        <v>26.64160946324097</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>21.28324202166137</v>
+        <v>21.42428480166033</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>21.9912766353082</v>
+        <v>22.19037907561157</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24.28451222799043</v>
+        <v>24.00477335024624</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25.5701199481728</v>
+        <v>24.62056163385821</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>19.648395042596</v>
+        <v>19.34601090166259</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>44.85126352857552</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47.65902695546919</v>
+        <v>47.65902695546918</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>39.04491867133251</v>
@@ -829,7 +829,7 @@
         <v>45.91194484027083</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>45.88830307285163</v>
+        <v>45.88830307285162</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>38.79607772414835</v>
+        <v>38.85081658904596</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>49.67719652471392</v>
+        <v>50.29233055189551</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40.56392808046466</v>
+        <v>40.9053613136372</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42.44754147328214</v>
+        <v>42.94322196847704</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>35.13588494075374</v>
+        <v>35.47058119345763</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>44.87935048711974</v>
+        <v>45.08473101445905</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>42.29956125509049</v>
+        <v>42.80832300302097</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>40.14730022734884</v>
+        <v>40.0802929581164</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>38.34884665581267</v>
+        <v>38.51831480626736</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49.14116124354174</v>
+        <v>49.46127388709786</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42.61092780541845</v>
+        <v>42.57745109879158</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>42.66306646465615</v>
+        <v>42.31395259780751</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>45.22741789960604</v>
+        <v>45.49995095467707</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>59.4250982074747</v>
+        <v>59.24740887554621</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49.75840648198693</v>
+        <v>49.9773817143986</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53.7444117383022</v>
+        <v>53.50283038309389</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>43.56141986952088</v>
+        <v>44.08263101972592</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>54.48838674384228</v>
+        <v>54.61770672408299</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>52.66437681305895</v>
+        <v>52.86277499867178</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>47.76270515612651</v>
+        <v>47.52228950718787</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>43.40039886580183</v>
+        <v>43.36286350084823</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>55.73080192957826</v>
+        <v>56.10781711410765</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49.44339273999722</v>
+        <v>49.76846770383759</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>49.70033404661194</v>
+        <v>49.22763430539461</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>86.52281496712429</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>94.25153126583483</v>
+        <v>94.25153126583481</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>97.94747842830721</v>
@@ -965,7 +965,7 @@
         <v>94.92641153171398</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>97.73320792338822</v>
+        <v>97.73320792338824</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>97.97724237580429</v>
+        <v>97.95282256985521</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>100.1120798062206</v>
+        <v>99.99346662829362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93.57052038423107</v>
+        <v>93.77130086409421</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94.18876646271903</v>
+        <v>94.15138744422767</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>77.3730720749376</v>
+        <v>77.90377784515732</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>76.90102755753195</v>
+        <v>77.18961836061122</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>78.76909416960405</v>
+        <v>78.80518425349916</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>87.92692180519103</v>
+        <v>87.92368914133409</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>92.88311081080694</v>
+        <v>92.42679372436757</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>92.57058044282775</v>
+        <v>92.99055114858369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>89.43752606209692</v>
+        <v>89.55412607440596</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>92.95663182927039</v>
+        <v>93.44582945651432</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>111.3675380014484</v>
+        <v>111.7005152446809</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>114.3209744170163</v>
+        <v>115.6326766613913</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>108.2027044683379</v>
+        <v>108.4578674609583</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106.7060560966519</v>
+        <v>106.3548493215429</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>95.86016458806122</v>
+        <v>95.66194025275368</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>94.74192471585293</v>
+        <v>94.89114953114655</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>94.61877249418703</v>
+        <v>94.51307886008878</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>100.5435797962094</v>
+        <v>100.7187566162631</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>103.9393404528005</v>
+        <v>103.6600447960207</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>104.3534987789911</v>
+        <v>104.2343724657603</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>100.1306054042018</v>
+        <v>100.3955806178267</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>102.115254899864</v>
+        <v>102.3259050454469</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>136.5096042232946</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>139.6083615275177</v>
+        <v>139.6083615275176</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>159.7977084867607</v>
@@ -1101,7 +1101,7 @@
         <v>153.8018096168427</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>161.290003391403</v>
+        <v>161.2900033914031</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>164.2175347109848</v>
+        <v>162.8802804135652</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>161.4228774329231</v>
+        <v>161.3365410798058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152.2294807033616</v>
+        <v>152.7226886547159</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>169.6557694960681</v>
+        <v>170.1232194855691</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>102.3837592880954</v>
+        <v>102.0667915533872</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>119.4401811761848</v>
+        <v>118.4414870715239</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>122.5251279759645</v>
+        <v>122.0975871945734</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>131.2726614343557</v>
+        <v>131.3843206842321</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>148.9825747742674</v>
+        <v>150.2670875904582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>148.9978245377239</v>
+        <v>148.3728208482219</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144.7164713110162</v>
+        <v>144.8917064031077</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>154.7856410563657</v>
+        <v>154.5171577109651</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>187.6283713959816</v>
+        <v>186.634719708559</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>187.0015112820173</v>
+        <v>186.5877987762411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>177.5678480721663</v>
+        <v>177.9346886825087</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>190.0253819213025</v>
+        <v>188.8186693435633</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>139.6017412084716</v>
+        <v>138.0256121458298</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>151.8771353143041</v>
+        <v>152.7670474520513</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>152.7780974621646</v>
+        <v>151.2665895560033</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>147.125298728474</v>
+        <v>147.8486399364177</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>169.4879365809657</v>
+        <v>169.6066655050192</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>169.7816326740095</v>
+        <v>168.9801803801213</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>163.6322660909355</v>
+        <v>163.74374192471</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>167.9917714360176</v>
+        <v>167.5374417354668</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>218.3948733177728</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>246.5339823707974</v>
+        <v>246.5339823707973</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>205.6064391483852</v>
+        <v>207.4512886136867</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>266.7296069775172</v>
+        <v>264.4973564937532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>223.9719159469061</v>
+        <v>224.9250825709664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>247.0277974662183</v>
+        <v>246.8322625858113</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>157.7749653481675</v>
+        <v>157.3903447021156</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>129.1319669888072</v>
+        <v>127.7419984337358</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>147.523717910267</v>
+        <v>149.3280538461077</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>205.3885067559243</v>
+        <v>207.217025594405</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>199.0382319428102</v>
+        <v>197.277714519838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>229.5161248763054</v>
+        <v>228.9145314592386</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201.1504419900994</v>
+        <v>202.2311880960275</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>235.0819712338857</v>
+        <v>236.4901703356965</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>247.1196685380451</v>
+        <v>250.19623146028</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>315.9425053330374</v>
+        <v>314.0019887748185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>267.4668422090799</v>
+        <v>269.6572472291731</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>278.9041783659551</v>
+        <v>280.5236119166267</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>229.850085828941</v>
+        <v>224.9220606077147</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>194.5080978323444</v>
+        <v>190.9738129803315</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>204.5758664964287</v>
+        <v>204.658643021298</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>237.3748603604795</v>
+        <v>238.1295977854535</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>235.0539275505423</v>
+        <v>234.8416710139274</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>270.9877225740126</v>
+        <v>270.9251117719915</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>234.3797876859452</v>
+        <v>236.9979562182023</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>256.9231626870887</v>
+        <v>257.699569627505</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>100.2416406903324</v>
+        <v>100.2393262688478</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>118.6097944775666</v>
+        <v>119.1888575154554</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110.9067631306913</v>
+        <v>110.413813972862</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>128.2605794010131</v>
+        <v>128.6711261082274</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>67.29605815321723</v>
+        <v>67.33010255593132</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>79.67720354532904</v>
+        <v>79.47521408741538</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>85.72078643653715</v>
+        <v>85.52287984955279</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>106.6389217232786</v>
+        <v>107.6453011873747</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>89.87733863314854</v>
+        <v>90.21410186652342</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104.83185126896</v>
+        <v>104.6445725012589</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>101.3534900595675</v>
+        <v>101.3296780440662</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>120.497077764643</v>
+        <v>120.7151769259805</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>109.9327450119441</v>
+        <v>109.4656671523721</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>131.9210268280949</v>
+        <v>131.6271493516261</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>122.4936406435765</v>
+        <v>122.2970706532598</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>140.8989874549471</v>
+        <v>140.7470695948443</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>78.26500382994116</v>
+        <v>78.56874866732927</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>91.80098096100251</v>
+        <v>92.02364630247347</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>97.30949838171341</v>
+        <v>96.90424642262212</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>117.3929927892913</v>
+        <v>117.4278155005203</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>97.24199957398388</v>
+        <v>98.01262376484635</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>114.1725368231755</v>
+        <v>114.1724420512596</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>109.9931561325467</v>
+        <v>110.1213700920479</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>129.0921020421698</v>
+        <v>129.2383079993631</v>
       </c>
     </row>
     <row r="22">
